--- a/biology/Botanique/Browningia/Browningia.xlsx
+++ b/biology/Botanique/Browningia/Browningia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Browningia est un genre de cactus qui comprend 11 espèces connues.
 Browningia candelaris pousse dans le désert d'Atacama sur les contreforts des Andes entre 2 500 m et 2 800 m d'altitude. On peut en voir de très beaux spécimens de  sur le bord de la route qui rejoint Arica à Putre au nord du Chili.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nom donné en l'honneur de Webster E. Browning, directeur de l'Instituto Inglès de Santiago du Chili[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom donné en l'honneur de Webster E. Browning, directeur de l'Instituto Inglès de Santiago du Chili.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Browningia albiceps F. Ritter
 Browningia altissima (F. Ritter) F. Buxbaum
@@ -560,9 +576,43 @@
 Browningia pilleifera (F. Ritter) P.C. Hutchinson
 Browningia riosaniensis (Backeberg) G.D. Rowley
 Browningia viridis (Rauh &amp; Backeberg) F. Buxbaum
-etc.
-Synonymes
-Azureocereus Akers &amp; H.Johnson
+etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Browningia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Browningia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Azureocereus Akers &amp; H.Johnson
 Castellanosia Cárdenas
 Gymnocereus Rauh &amp; Backeb.</t>
         </is>
